--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3616.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3616.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.280184274473009</v>
+        <v>1.69214141368866</v>
       </c>
       <c r="B1">
-        <v>2.314031226143272</v>
+        <v>2.897798299789429</v>
       </c>
       <c r="C1">
-        <v>3.218161894486488</v>
+        <v>3.60251522064209</v>
       </c>
       <c r="D1">
-        <v>3.165948318701096</v>
+        <v>1.397141814231873</v>
       </c>
       <c r="E1">
-        <v>0.9208589505172731</v>
+        <v>0.9340725541114807</v>
       </c>
     </row>
   </sheetData>
